--- a/biology/Zoologie/Bulbul_à_queue_rousse/Bulbul_à_queue_rousse.xlsx
+++ b/biology/Zoologie/Bulbul_à_queue_rousse/Bulbul_à_queue_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_queue_rousse</t>
+          <t>Bulbul_à_queue_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllastrephus scandens
 Le’Bulbul à queue rousse (Phyllastrephus scandens) est une espèce d’oiseaux de la famille des Pycnonotidae. Elle est parfois placée dans le genre Pyrrhurus dont elle est faite l'unique espèce.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_queue_rousse</t>
+          <t>Bulbul_à_queue_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce africaine vit au Bénin, au Cameroun, en République centrafricaine, en République du Congo, en République démocratique du Congo, en Côte d'Ivoire, au Gabon, en Gambie, au Ghana, en Guinée, en Guinée-Bissau, en Guinée équatoriale, au Liberia, au Mali, au Niger, au Nigeria, en Ouganda, au Rwanda, au Sénégal, en Sierra Leone, au Soudan, en Tanzanie et au Togo.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_queue_rousse</t>
+          <t>Bulbul_à_queue_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par 4 sous-espèces :
 P. s. acedis ;
